--- a/Descargas/R15_Juzgado De Garantia De Chillan_Ingresos Causas Por Materia_2020-Enero.xlsx
+++ b/Descargas/R15_Juzgado De Garantia De Chillan_Ingresos Causas Por Materia_2020-Enero.xlsx
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="B72" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
